--- a/public/data/lime/lime_table_eritrea.xlsx
+++ b/public/data/lime/lime_table_eritrea.xlsx
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.02</v>
+        <v>0.09</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.34</v>
+        <v>0.26</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
